--- a/ProductsData.xlsx
+++ b/ProductsData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="118">
   <si>
     <t>Price (MRP)</t>
   </si>
@@ -32,205 +32,340 @@
     <t>80% off</t>
   </si>
   <si>
+    <t>₹301</t>
+  </si>
+  <si>
+    <t>₹1,299</t>
+  </si>
+  <si>
+    <t>76% off</t>
+  </si>
+  <si>
+    <t>₹1,488</t>
+  </si>
+  <si>
+    <t>₹3,999</t>
+  </si>
+  <si>
+    <t>62% off</t>
+  </si>
+  <si>
+    <t>₹1,349</t>
+  </si>
+  <si>
+    <t>₹4,499</t>
+  </si>
+  <si>
+    <t>70% off</t>
+  </si>
+  <si>
+    <t>₹311</t>
+  </si>
+  <si>
+    <t>₹998</t>
+  </si>
+  <si>
+    <t>68% off</t>
+  </si>
+  <si>
+    <t>₹727</t>
+  </si>
+  <si>
+    <t>₹2,999</t>
+  </si>
+  <si>
+    <t>75% off</t>
+  </si>
+  <si>
+    <t>₹1,169</t>
+  </si>
+  <si>
+    <t>₹4,999</t>
+  </si>
+  <si>
+    <t>₹577</t>
+  </si>
+  <si>
+    <t>₹1,499</t>
+  </si>
+  <si>
+    <t>61% off</t>
+  </si>
+  <si>
+    <t>₹266</t>
+  </si>
+  <si>
+    <t>79% off</t>
+  </si>
+  <si>
+    <t>₹699</t>
+  </si>
+  <si>
+    <t>₹509</t>
+  </si>
+  <si>
     <t>₹295</t>
   </si>
   <si>
-    <t>₹1,299</t>
+    <t>₹999</t>
+  </si>
+  <si>
+    <t>₹1,030</t>
+  </si>
+  <si>
+    <t>74% off</t>
+  </si>
+  <si>
+    <t>₹282</t>
+  </si>
+  <si>
+    <t>₹599</t>
+  </si>
+  <si>
+    <t>52% off</t>
+  </si>
+  <si>
+    <t>₹1,199</t>
+  </si>
+  <si>
+    <t>₹299</t>
+  </si>
+  <si>
+    <t>₹689</t>
+  </si>
+  <si>
+    <t>₹1,999</t>
+  </si>
+  <si>
+    <t>65% off</t>
+  </si>
+  <si>
+    <t>₹540</t>
+  </si>
+  <si>
+    <t>₹1,599</t>
+  </si>
+  <si>
+    <t>66% off</t>
+  </si>
+  <si>
+    <t>₹538</t>
+  </si>
+  <si>
+    <t>78% off</t>
+  </si>
+  <si>
+    <t>₹2,940</t>
+  </si>
+  <si>
+    <t>₹5,999</t>
+  </si>
+  <si>
+    <t>50% off</t>
+  </si>
+  <si>
+    <t>57% off</t>
+  </si>
+  <si>
+    <t>₹1,036</t>
+  </si>
+  <si>
+    <t>48% off</t>
+  </si>
+  <si>
+    <t>₹517</t>
+  </si>
+  <si>
+    <t>₹2,249</t>
   </si>
   <si>
     <t>77% off</t>
   </si>
   <si>
-    <t>₹599</t>
-  </si>
-  <si>
-    <t>₹2,999</t>
-  </si>
-  <si>
-    <t>₹697</t>
-  </si>
-  <si>
-    <t>₹1,078</t>
-  </si>
-  <si>
-    <t>35% off</t>
-  </si>
-  <si>
-    <t>₹282</t>
-  </si>
-  <si>
-    <t>52% off</t>
-  </si>
-  <si>
     <t>₹308</t>
   </si>
   <si>
-    <t>₹1,499</t>
-  </si>
-  <si>
-    <t>79% off</t>
-  </si>
-  <si>
-    <t>₹649</t>
-  </si>
-  <si>
-    <t>₹999</t>
-  </si>
-  <si>
-    <t>₹693</t>
-  </si>
-  <si>
-    <t>30% off</t>
-  </si>
-  <si>
-    <t>₹489</t>
-  </si>
-  <si>
-    <t>₹1,599</t>
-  </si>
-  <si>
-    <t>69% off</t>
-  </si>
-  <si>
-    <t>₹266</t>
-  </si>
-  <si>
-    <t>₹232</t>
-  </si>
-  <si>
-    <t>76% off</t>
-  </si>
-  <si>
-    <t>₹509</t>
+    <t>₹471</t>
+  </si>
+  <si>
+    <t>₹1,360</t>
+  </si>
+  <si>
+    <t>₹272</t>
+  </si>
+  <si>
+    <t>54% off</t>
+  </si>
+  <si>
+    <t>₹298</t>
+  </si>
+  <si>
+    <t>₹767</t>
+  </si>
+  <si>
+    <t>36% off</t>
+  </si>
+  <si>
+    <t>₹1,365</t>
+  </si>
+  <si>
+    <t>₹3,000</t>
+  </si>
+  <si>
+    <t>₹799</t>
+  </si>
+  <si>
+    <t>₹516</t>
+  </si>
+  <si>
+    <t>₹1,249</t>
+  </si>
+  <si>
+    <t>58% off</t>
+  </si>
+  <si>
+    <t>₹1,511</t>
+  </si>
+  <si>
+    <t>₹2,699</t>
+  </si>
+  <si>
+    <t>44% off</t>
+  </si>
+  <si>
+    <t>₹324</t>
+  </si>
+  <si>
+    <t>₹320</t>
+  </si>
+  <si>
+    <t>67% off</t>
+  </si>
+  <si>
+    <t>₹650</t>
+  </si>
+  <si>
+    <t>34% off</t>
+  </si>
+  <si>
+    <t>₹899</t>
+  </si>
+  <si>
+    <t>10% off</t>
+  </si>
+  <si>
+    <t>₹506</t>
+  </si>
+  <si>
+    <t>₹598</t>
+  </si>
+  <si>
+    <t>₹908</t>
+  </si>
+  <si>
+    <t>39% off</t>
+  </si>
+  <si>
+    <t>₹1,554</t>
+  </si>
+  <si>
+    <t>₹2,949</t>
+  </si>
+  <si>
+    <t>47% off</t>
+  </si>
+  <si>
+    <t>₹498</t>
+  </si>
+  <si>
+    <t>₹329</t>
+  </si>
+  <si>
+    <t>₹589</t>
+  </si>
+  <si>
+    <t>₹1,399</t>
+  </si>
+  <si>
+    <t>₹3,495</t>
+  </si>
+  <si>
+    <t>59% off</t>
+  </si>
+  <si>
+    <t>72% off</t>
+  </si>
+  <si>
+    <t>₹537</t>
+  </si>
+  <si>
+    <t>73% off</t>
+  </si>
+  <si>
+    <t>₹700</t>
+  </si>
+  <si>
+    <t>71% off</t>
+  </si>
+  <si>
+    <t>₹1,449</t>
+  </si>
+  <si>
+    <t>63% off</t>
+  </si>
+  <si>
+    <t>₹491</t>
+  </si>
+  <si>
+    <t>₹505</t>
+  </si>
+  <si>
+    <t>₹667</t>
   </si>
   <si>
     <t>₹1,990</t>
   </si>
   <si>
+    <t>₹580</t>
+  </si>
+  <si>
+    <t>₹493</t>
+  </si>
+  <si>
+    <t>60% off</t>
+  </si>
+  <si>
     <t>64% off</t>
   </si>
   <si>
-    <t>₹899</t>
-  </si>
-  <si>
-    <t>70% off</t>
-  </si>
-  <si>
-    <t>₹720</t>
-  </si>
-  <si>
-    <t>27% off</t>
-  </si>
-  <si>
-    <t>₹299</t>
-  </si>
-  <si>
-    <t>40% off</t>
-  </si>
-  <si>
-    <t>₹272</t>
-  </si>
-  <si>
-    <t>54% off</t>
-  </si>
-  <si>
-    <t>₹1,036</t>
-  </si>
-  <si>
-    <t>₹1,999</t>
-  </si>
-  <si>
-    <t>48% off</t>
-  </si>
-  <si>
-    <t>₹699</t>
-  </si>
-  <si>
-    <t>57% off</t>
-  </si>
-  <si>
-    <t>₹538</t>
-  </si>
-  <si>
-    <t>78% off</t>
+    <t>₹293</t>
+  </si>
+  <si>
+    <t>₹508</t>
+  </si>
+  <si>
+    <t>29% off</t>
+  </si>
+  <si>
+    <t>₹466</t>
+  </si>
+  <si>
+    <t>53% off</t>
   </si>
   <si>
     <t>₹529</t>
   </si>
   <si>
+    <t>₹525</t>
+  </si>
+  <si>
     <t>82% off</t>
   </si>
   <si>
-    <t>₹696</t>
-  </si>
-  <si>
-    <t>65% off</t>
-  </si>
-  <si>
-    <t>₹925</t>
-  </si>
-  <si>
-    <t>₹3,699</t>
-  </si>
-  <si>
-    <t>74% off</t>
-  </si>
-  <si>
-    <t>₹540</t>
-  </si>
-  <si>
-    <t>66% off</t>
-  </si>
-  <si>
-    <t>₹2,159</t>
-  </si>
-  <si>
-    <t>₹7,199</t>
-  </si>
-  <si>
-    <t>₹2,160</t>
-  </si>
-  <si>
-    <t>₹4,499</t>
-  </si>
-  <si>
-    <t>51% off</t>
-  </si>
-  <si>
-    <t>₹792</t>
-  </si>
-  <si>
-    <t>₹1,699</t>
-  </si>
-  <si>
-    <t>53% off</t>
-  </si>
-  <si>
-    <t>₹324</t>
-  </si>
-  <si>
-    <t>75% off</t>
-  </si>
-  <si>
-    <t>₹493</t>
-  </si>
-  <si>
-    <t>₹1,249</t>
-  </si>
-  <si>
-    <t>60% off</t>
-  </si>
-  <si>
-    <t>₹498</t>
-  </si>
-  <si>
-    <t>₹517</t>
-  </si>
-  <si>
-    <t>₹2,249</t>
-  </si>
-  <si>
-    <t>₹309</t>
+    <t>₹749</t>
+  </si>
+  <si>
+    <t>25% off</t>
   </si>
 </sst>
 </file>
@@ -275,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D81"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -322,51 +457,51 @@
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
         <v>19</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>20</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9">
@@ -374,10 +509,10 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10">
@@ -399,29 +534,29 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
@@ -432,18 +567,18 @@
         <v>4</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
@@ -459,277 +594,717 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C20" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C21" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="B24" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" t="s">
         <v>40</v>
       </c>
-      <c r="B26" t="s">
-        <v>41</v>
-      </c>
       <c r="C26" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="B27" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="C27" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" t="s">
         <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>38</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="C34" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>59</v>
+        <v>37</v>
       </c>
       <c r="C35" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>65</v>
+        <v>11</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>71</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
+        <v>56</v>
+      </c>
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>74</v>
+      </c>
+      <c r="B43" t="s">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s">
+        <v>78</v>
+      </c>
+      <c r="B47" t="s">
+        <v>31</v>
+      </c>
+      <c r="C47" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" t="s">
+        <v>40</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s">
+        <v>81</v>
+      </c>
+      <c r="B49" t="s">
+        <v>40</v>
+      </c>
+      <c r="C49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" t="s">
+        <v>85</v>
+      </c>
+      <c r="C51" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s">
+        <v>87</v>
+      </c>
+      <c r="B52" t="s">
+        <v>40</v>
+      </c>
+      <c r="C52" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s">
+        <v>90</v>
+      </c>
+      <c r="B56" t="s">
+        <v>91</v>
+      </c>
+      <c r="C56" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" t="s">
+        <v>31</v>
+      </c>
+      <c r="C58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s">
+        <v>94</v>
+      </c>
+      <c r="B59" t="s">
+        <v>40</v>
+      </c>
+      <c r="C59" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s">
+        <v>96</v>
+      </c>
+      <c r="B60" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s">
+        <v>98</v>
+      </c>
+      <c r="B61" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s">
+        <v>70</v>
+      </c>
+      <c r="B62" t="s">
+        <v>71</v>
+      </c>
+      <c r="C62" t="s">
         <v>72</v>
       </c>
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" t="s">
-        <v>18</v>
+    </row>
+    <row r="63">
+      <c r="A63" t="s">
+        <v>100</v>
+      </c>
+      <c r="B63" t="s">
+        <v>31</v>
+      </c>
+      <c r="C63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s">
+        <v>101</v>
+      </c>
+      <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s">
+        <v>3</v>
+      </c>
+      <c r="B65" t="s">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s">
+        <v>62</v>
+      </c>
+      <c r="B66" t="s">
+        <v>37</v>
+      </c>
+      <c r="C66" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s">
+        <v>102</v>
+      </c>
+      <c r="B67" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s">
+        <v>104</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s">
+        <v>105</v>
+      </c>
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s">
+        <v>108</v>
+      </c>
+      <c r="B71" t="s">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>40</v>
+      </c>
+      <c r="C72" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s">
+        <v>109</v>
+      </c>
+      <c r="B73" t="s">
+        <v>24</v>
+      </c>
+      <c r="C73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B74" t="s">
+        <v>31</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s">
+        <v>111</v>
+      </c>
+      <c r="B76" t="s">
+        <v>31</v>
+      </c>
+      <c r="C76" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" t="s">
+        <v>66</v>
+      </c>
+      <c r="C77" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>113</v>
+      </c>
+      <c r="B78" t="s">
+        <v>31</v>
+      </c>
+      <c r="C78" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>114</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>116</v>
+      </c>
+      <c r="B81" t="s">
+        <v>31</v>
+      </c>
+      <c r="C81" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>
